--- a/data_processed/20250820/BTCUSDVOLSURFACE_20250820.xlsx
+++ b/data_processed/20250820/BTCUSDVOLSURFACE_20250820.xlsx
@@ -1481,7 +1481,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -2090,7 +2090,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -2322,7 +2322,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -2583,7 +2583,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -7866,7 +7866,7 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7924,7 +7924,7 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8090,7 +8090,7 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8148,7 +8148,7 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8206,7 +8206,7 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8264,7 +8264,7 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8434,7 +8434,7 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8492,7 +8492,7 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8575,7 +8575,7 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8662,7 +8662,7 @@
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8803,7 +8803,7 @@
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
